--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,6 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>defective</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
@@ -73,262 +67,280 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>cake</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>well</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>dish</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -689,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,16 +791,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -800,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -808,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6521739130434783</v>
+        <v>0.525</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -826,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -850,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -858,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5925925925925926</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -876,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8591331269349846</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>555</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>555</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -908,37 +920,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.475</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8436532507739938</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>545</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>545</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -950,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -958,37 +970,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3773584905660378</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K7">
-        <v>0.7922077922077922</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1000,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1008,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3023255813953488</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1026,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1050,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1058,137 +1070,89 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2597402597402597</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>162</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L9">
+        <v>32</v>
+      </c>
+      <c r="M9">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="L10">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>0.05</v>
-      </c>
-      <c r="F9">
-        <v>0.95</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>57</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="M10">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.7316017316017316</v>
-      </c>
-      <c r="L9">
-        <v>169</v>
-      </c>
-      <c r="M9">
-        <v>169</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1717171717171717</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>82</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L10">
-        <v>51</v>
-      </c>
-      <c r="M10">
-        <v>51</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1243243243243243</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>162</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.6956521739130435</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1200,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6711864406779661</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L12">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1226,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6571428571428571</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6470588235294118</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6461538461538462</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1304,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6444444444444445</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,21 +1294,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.637239165329053</v>
+        <v>0.6332263242375602</v>
       </c>
       <c r="L17">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="M17">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,15 +1320,15 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6363636363636364</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L18">
         <v>28</v>
@@ -1382,21 +1346,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6285714285714286</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1408,21 +1372,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6197183098591549</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1434,21 +1398,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5972222222222222</v>
+        <v>0.5625</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1460,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5641025641025641</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L22">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1486,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5614035087719298</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1512,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5573770491803278</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1538,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5329341317365269</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L25">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1564,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.515625</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1590,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1616,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4901960784313725</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1642,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4791666666666667</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1668,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4736842105263158</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L30">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1694,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4736842105263158</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1720,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4698795180722892</v>
+        <v>0.41</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1746,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4457831325301205</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L33">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1772,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1798,47 +1762,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.382716049382716</v>
+      </c>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>50</v>
-      </c>
-      <c r="K35">
-        <v>0.3872549019607843</v>
-      </c>
-      <c r="L35">
-        <v>158</v>
-      </c>
-      <c r="M35">
-        <v>158</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3846153846153846</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1850,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.38</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1876,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3469387755102041</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1902,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3454545454545455</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1928,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3383458646616541</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L40">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="M40">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1954,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>88</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.3229571984435798</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L41">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1980,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.3225806451612903</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2006,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.3157894736842105</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2032,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.3123287671232877</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L44">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2058,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>502</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.3061224489795918</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2084,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2962962962962963</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2110,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2923076923076923</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2136,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2792792792792793</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2162,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>80</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2678571428571428</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2188,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2648008611410119</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L50">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="M50">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2214,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>683</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.2440191387559809</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2240,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>158</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.2382445141065831</v>
+        <v>0.25</v>
       </c>
       <c r="L52">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2266,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>243</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.2178217821782178</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2292,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.212962962962963</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2318,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>85</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.2119205298013245</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L55">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2344,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.2086330935251799</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2370,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.2083333333333333</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2396,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>57</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1986754966887417</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L58">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2422,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>605</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1981981981981982</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2448,21 +2412,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1828644501278772</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L60">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2474,47 +2438,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>639</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1785714285714286</v>
+        <v>0.1854219948849105</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="M61">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>92</v>
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.1677852348993289</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2526,21 +2490,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1639344262295082</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2552,21 +2516,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.1581508515815085</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L64">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2578,21 +2542,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>346</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1452991452991453</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2604,47 +2568,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.1378378378378378</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L66">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>319</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.1376146788990826</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2656,47 +2620,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68">
+        <v>0.1616161616161616</v>
+      </c>
+      <c r="L68">
+        <v>16</v>
+      </c>
+      <c r="M68">
+        <v>16</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>83</v>
-      </c>
-      <c r="K68">
-        <v>0.1307692307692308</v>
-      </c>
-      <c r="L68">
-        <v>17</v>
-      </c>
-      <c r="M68">
-        <v>17</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>113</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.1280487804878049</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2708,99 +2672,99 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>143</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.1218487394957983</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>209</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.1186440677966102</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L71">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.1182266009852217</v>
+        <v>0.1327913279132791</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>179</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.1151515151515152</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M73">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2812,21 +2776,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>146</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.1099656357388316</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L74">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M74">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2838,21 +2802,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.1042944785276074</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2864,21 +2828,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>146</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.1030701754385965</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L76">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M76">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2890,21 +2854,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1002386634844869</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L77">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2916,47 +2880,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>377</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L78">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M78">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.09772727272727273</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="L79">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2968,21 +2932,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>397</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.0959409594095941</v>
+        <v>0.1096491228070175</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M80">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2994,21 +2958,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>245</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.07211538461538461</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3020,21 +2984,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K82">
-        <v>0.07182835820895522</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="L82">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="M82">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3046,47 +3010,47 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>995</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K83">
-        <v>0.06025824964131994</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L83">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M83">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N83">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>655</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K84">
-        <v>0.06010928961748634</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3098,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>344</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K85">
-        <v>0.0583756345177665</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="L85">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3124,111 +3088,267 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>371</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K86">
-        <v>0.03838771593090211</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M86">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>501</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K87">
-        <v>0.03696857670979668</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L87">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M87">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>521</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K88">
-        <v>0.03631961259079903</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N88">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O88">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>398</v>
+        <v>649</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K89">
+        <v>0.06048387096774194</v>
+      </c>
+      <c r="L89">
+        <v>15</v>
+      </c>
+      <c r="M89">
+        <v>15</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K90">
+        <v>0.05788982259570495</v>
+      </c>
+      <c r="L90">
+        <v>62</v>
+      </c>
+      <c r="M90">
+        <v>63</v>
+      </c>
+      <c r="N90">
+        <v>0.98</v>
+      </c>
+      <c r="O90">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K89">
-        <v>0.03206239168110919</v>
-      </c>
-      <c r="L89">
-        <v>37</v>
-      </c>
-      <c r="M89">
-        <v>40</v>
-      </c>
-      <c r="N89">
-        <v>0.93</v>
-      </c>
-      <c r="O89">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>1117</v>
+      <c r="K91">
+        <v>0.05583756345177665</v>
+      </c>
+      <c r="L91">
+        <v>22</v>
+      </c>
+      <c r="M91">
+        <v>22</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K92">
+        <v>0.04428044280442804</v>
+      </c>
+      <c r="L92">
+        <v>24</v>
+      </c>
+      <c r="M92">
+        <v>24</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K93">
+        <v>0.04358353510895883</v>
+      </c>
+      <c r="L93">
+        <v>18</v>
+      </c>
+      <c r="M93">
+        <v>19</v>
+      </c>
+      <c r="N93">
+        <v>0.95</v>
+      </c>
+      <c r="O93">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K94">
+        <v>0.03802938634399308</v>
+      </c>
+      <c r="L94">
+        <v>44</v>
+      </c>
+      <c r="M94">
+        <v>44</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K95">
+        <v>0.03461538461538462</v>
+      </c>
+      <c r="L95">
+        <v>18</v>
+      </c>
+      <c r="M95">
+        <v>20</v>
+      </c>
+      <c r="N95">
+        <v>0.9</v>
+      </c>
+      <c r="O95">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
